--- a/data/trans_camb/P25A_11_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_11_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,86</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>46,59</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>52,67</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,36</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 14,02</t>
+          <t>0,71; 9,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 5,7</t>
+          <t>-1,32; 6,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,59; 85,35</t>
+          <t>-1,78; 6,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 5,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 6,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,96; 60,43</t>
+          <t>-4,9; 7,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 7,69</t>
+          <t>-3,74; 8,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 5,36</t>
+          <t>-1,03; 14,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,09; 63,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 6,95</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 5,73</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 10,3</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>218,58%</t>
+          <t>219,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>70,75%</t>
+          <t>103,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2649,19%</t>
+          <t>111,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>534,45%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>80,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>873,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>49,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42,74%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>92,42%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1077,14</t>
+          <t>-4,31; 1285,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,64; 522,05</t>
+          <t>-45,35; 859,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1058,24; 8012,34</t>
+          <t>-64,14; 944,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,5; 92,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 114,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>310,74; 905,59</t>
+          <t>-40,41; 135,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 168,91</t>
+          <t>-28,13; 169,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 124,79</t>
+          <t>-11,37; 265,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>538,01; 1375,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,01; 185,82</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; 152,54</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 281,26</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>69,4</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>64,46</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66,72</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,75</t>
+          <t>-1,99; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,0</t>
+          <t>-1,54; 3,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>49,76; 83,17</t>
+          <t>-1,4; 3,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 1,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,51; 73,94</t>
+          <t>-7,01; 1,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,02</t>
+          <t>-4,56; 4,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,12</t>
+          <t>-2,48; 5,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>57,54; 75,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 1,54</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 2,99</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 3,8</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2957,74%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1084,5%</t>
+          <t>-26,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,42%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1611,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-14,39%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>31,32%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,15; 118,3</t>
+          <t>-61,87; 309,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,63; 131,1</t>
+          <t>-43,34; 276,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1603,13; 5630,84</t>
+          <t>-49,48; 337,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,59; 44,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,46; 92,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>607,93; 1677,43</t>
+          <t>-67,19; 27,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,92; 33,49</t>
+          <t>-46,01; 103,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 69,19</t>
+          <t>-36,58; 133,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1041,64; 2298,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-52,37; 49,3</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-37,24; 99,58</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-27,4; 114,98</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>50,43</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>54,72</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>52,85</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,49; -0,32</t>
+          <t>-5,52; -0,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; -0,82</t>
+          <t>-4,58; 0,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,59; 84,71</t>
+          <t>-2,22; 4,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,91; 74,65</t>
+          <t>-2,15; 3,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 1,17</t>
+          <t>-3,15; 1,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 0,13</t>
+          <t>-2,11; 3,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,6; 70,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 1,41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 0,75</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 2,97</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-60,5%</t>
+          <t>-62,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-64,56%</t>
+          <t>-40,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>889,55%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1677,05%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-21,03%</t>
+          <t>-11,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-39,47%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1181,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-15,86%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-24,94%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>25,53%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-89,81; 21,53</t>
+          <t>-91,46; 13,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,81; -17,61</t>
+          <t>-79,55; 67,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>189,21; 1986,67</t>
+          <t>-49,45; 236,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 187,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,19; 105,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>744,2; 3438,72</t>
+          <t>-40,91; 148,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-57,18; 35,99</t>
+          <t>-56,29; 86,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-66,24; 7,78</t>
+          <t>-41,59; 158,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>604,71; 2004,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-52,25; 63,43</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-57,35; 31,84</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-31,95; 113,44</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>66,05</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>55,91</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>59,26</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,59</t>
+          <t>-2,92; 6,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,73; 76,24</t>
+          <t>-5,35; 1,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,11; 63,25</t>
+          <t>0,4; 6,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,44</t>
+          <t>2,07; 9,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,25; 65,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 5,76</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 4,09</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1910,03%</t>
+          <t>-37,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>968,72%</t>
+          <t>76,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>122,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1277,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>45,32%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>36,04%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 100,42</t>
+          <t>-58,26; 219,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 39,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1116,89; 2855,72</t>
+          <t>-76,12; 42,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 47,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 58,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>702,54; 1317,87</t>
+          <t>4,63; 205,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 45,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 38,09</t>
+          <t>32,42; 302,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>975,62; 1638,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-14,06; 155,58</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-17,14; 110,83</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 2,45</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 1,11</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 2,06</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 2,84</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 3,78</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 6,06</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 1,93</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 1,99</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 3,29</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-12,74%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>18,22%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>31,12%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>71,02%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>44,68%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-36,69; 87,54</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-48,14; 42,84</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-35,4; 73,59</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-16,59; 65,31</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 87,66</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>24,15; 139,3</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 50,62</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-12,13; 53,17</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>11,9; 86,48</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
